--- a/03.crawler/02.Dorman/file/1.page.xlsx
+++ b/03.crawler/02.Dorman/file/1.page.xlsx
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="D2" t="n">
         <v>13</v>
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="D3" t="n">
         <v>11</v>

--- a/03.crawler/02.Dorman/file/1.page.xlsx
+++ b/03.crawler/02.Dorman/file/1.page.xlsx
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="D2" t="n">
         <v>13</v>
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1086</v>
+        <v>1091</v>
       </c>
       <c r="D3" t="n">
         <v>11</v>
